--- a/gen_data/fflonk.xlsx
+++ b/gen_data/fflonk.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DDB595-A7A3-7945-A839-8DAE5E0FD0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B9D9B-2FF7-6A4A-945A-C5E33A25CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A2540C3D-7F72-2547-8F9E-0187692AE771}"/>
+    <workbookView xWindow="3860" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{A2540C3D-7F72-2547-8F9E-0187692AE771}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$NTP$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$1:$NTP$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$1:$NTP$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$1:$NTP$1</definedName>
     <definedName name="fflonk" localSheetId="0">Sheet1!$A$1:$NTP$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{F6B528A0-D3DA-404A-A8F5-2ABCDB34D6FC}" name="fflonk" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/fflonk.csv" tab="0" comma="1" qualifier="none">
+    <textPr sourceFile="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/fflonk.csv" tab="0" comma="1" qualifier="none">
       <textFields count="1334">
         <textField/>
         <textField/>
@@ -1486,7 +1485,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Fflonk Protocol</a:t>
+              <a:t>Fflonk </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1522,7 +1521,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.601898327663724E-2"/>
+          <c:y val="4.5622607450748497E-2"/>
+          <c:w val="0.89665183738183962"/>
+          <c:h val="0.83689174754318496"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -31582,6 +31591,7 @@
         <c:axId val="1704250047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -31599,6 +31609,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Assets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -31643,6 +31708,8 @@
         <c:axId val="1704123423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45"/>
+          <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -31660,6 +31727,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -31753,7 +31875,719 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fflonk</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6753433449797467E-2"/>
+          <c:y val="6.8084507675560263E-2"/>
+          <c:w val="0.94037300163707149"/>
+          <c:h val="0.84696077983431206"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Percentage</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$43:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$43:$A$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B84B-D04C-800C-2AAF82083BA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="194313135"/>
+        <c:axId val="1226420320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="194313135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1226420320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1226420320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Asset percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="194313135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.63329984901120473"/>
+          <c:y val="0.34604431557110515"/>
+          <c:w val="0.13097877242087994"/>
+          <c:h val="0.10853439390032345"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -32309,20 +33143,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32347,7 +33684,406 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>121578</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02603822-54E5-4D4E-9672-1F3F575C1391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Plonk"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="50">
+          <cell r="A50">
+            <v>0.08</v>
+          </cell>
+          <cell r="C50">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>0.13999999999999999</v>
+          </cell>
+          <cell r="C51">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>0.15</v>
+          </cell>
+          <cell r="C52">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>0.15</v>
+          </cell>
+          <cell r="C53">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>0.44999999999999996</v>
+          </cell>
+          <cell r="C54">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>1.9800000000000002</v>
+          </cell>
+          <cell r="C55">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>9.8000000000000007</v>
+          </cell>
+          <cell r="C56">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>45.5</v>
+          </cell>
+          <cell r="C57">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>33.81</v>
+          </cell>
+          <cell r="C58">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>6.04</v>
+          </cell>
+          <cell r="C59">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>1.2</v>
+          </cell>
+          <cell r="C60">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>0.44999999999999996</v>
+          </cell>
+          <cell r="C61">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>0.13999999999999999</v>
+          </cell>
+          <cell r="C62">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>0.05</v>
+          </cell>
+          <cell r="C63">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>0</v>
+          </cell>
+          <cell r="C64">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>0</v>
+          </cell>
+          <cell r="C65">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>0</v>
+          </cell>
+          <cell r="C66">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>0.01</v>
+          </cell>
+          <cell r="C67">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>0.01</v>
+          </cell>
+          <cell r="C68">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>0.01</v>
+          </cell>
+          <cell r="C69">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>0.01</v>
+          </cell>
+          <cell r="C70">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>0</v>
+          </cell>
+          <cell r="C71">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>0</v>
+          </cell>
+          <cell r="C72">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>0.01</v>
+          </cell>
+          <cell r="C73">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>0</v>
+          </cell>
+          <cell r="C74">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>0</v>
+          </cell>
+          <cell r="C75">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>0</v>
+          </cell>
+          <cell r="C76">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>0</v>
+          </cell>
+          <cell r="C77">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>0</v>
+          </cell>
+          <cell r="C78">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>0</v>
+          </cell>
+          <cell r="C79">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>0</v>
+          </cell>
+          <cell r="C80">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>0</v>
+          </cell>
+          <cell r="C81">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>0</v>
+          </cell>
+          <cell r="C82">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>0</v>
+          </cell>
+          <cell r="C83">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>0</v>
+          </cell>
+          <cell r="C84">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>0</v>
+          </cell>
+          <cell r="C85">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>0</v>
+          </cell>
+          <cell r="C86">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>0</v>
+          </cell>
+          <cell r="C87">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>0</v>
+          </cell>
+          <cell r="C88">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>0</v>
+          </cell>
+          <cell r="C89">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>0</v>
+          </cell>
+          <cell r="C90">
+            <v>57</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>0</v>
+          </cell>
+          <cell r="C91">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>0.01</v>
+          </cell>
+          <cell r="C92">
+            <v>59</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32671,15 +34407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE74116-9F44-A54F-A6BB-CC0FCFA65322}">
-  <dimension ref="A1:NTP6"/>
+  <dimension ref="A1:NTP78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="10000" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -62713,6 +64450,309 @@
         <v>1.4656511090015081</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f>((COUNTIFS($1:$1,C43))/10000)*100</f>
+        <v>0.09</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" ref="A44:A75" si="0">((COUNTIFS($1:$1,C44))/10000)*100</f>
+        <v>0.31</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>9.7900000000000009</v>
+      </c>
+      <c r="C50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>34.729999999999997</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>32.76</v>
+      </c>
+      <c r="C52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>13.139999999999999</v>
+      </c>
+      <c r="C53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>3.81</v>
+      </c>
+      <c r="C54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="C57">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="C58">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C59">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="C60">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C62">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+      <c r="C64">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C74">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="C75">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f>SUM(A43:A75)</f>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/gen_data/fflonk.xlsx
+++ b/gen_data/fflonk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83B9D9B-2FF7-6A4A-945A-C5E33A25CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978EA6CF-FA0F-404C-AEEE-207C267FF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{A2540C3D-7F72-2547-8F9E-0187692AE771}"/>
   </bookViews>

--- a/gen_data/fflonk.xlsx
+++ b/gen_data/fflonk.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978EA6CF-FA0F-404C-AEEE-207C267FF93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0DD96-4D80-1040-B50A-E28189D5893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{A2540C3D-7F72-2547-8F9E-0187692AE771}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="fflonk" localSheetId="0">Sheet1!$A$1:$NTP$1</definedName>
   </definedNames>
@@ -33725,367 +33722,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Plonk"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="50">
-          <cell r="A50">
-            <v>0.08</v>
-          </cell>
-          <cell r="C50">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>0.13999999999999999</v>
-          </cell>
-          <cell r="C51">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>0.15</v>
-          </cell>
-          <cell r="C52">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>0.15</v>
-          </cell>
-          <cell r="C53">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>0.44999999999999996</v>
-          </cell>
-          <cell r="C54">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>1.9800000000000002</v>
-          </cell>
-          <cell r="C55">
-            <v>22</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>9.8000000000000007</v>
-          </cell>
-          <cell r="C56">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>45.5</v>
-          </cell>
-          <cell r="C57">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>33.81</v>
-          </cell>
-          <cell r="C58">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>6.04</v>
-          </cell>
-          <cell r="C59">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>1.2</v>
-          </cell>
-          <cell r="C60">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>0.44999999999999996</v>
-          </cell>
-          <cell r="C61">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>0.13999999999999999</v>
-          </cell>
-          <cell r="C62">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>0.05</v>
-          </cell>
-          <cell r="C63">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>0</v>
-          </cell>
-          <cell r="C64">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>0</v>
-          </cell>
-          <cell r="C65">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>0</v>
-          </cell>
-          <cell r="C66">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>0.01</v>
-          </cell>
-          <cell r="C67">
-            <v>34</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>0.01</v>
-          </cell>
-          <cell r="C68">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>0.01</v>
-          </cell>
-          <cell r="C69">
-            <v>36</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>0.01</v>
-          </cell>
-          <cell r="C70">
-            <v>37</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>0</v>
-          </cell>
-          <cell r="C71">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>0</v>
-          </cell>
-          <cell r="C72">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>0.01</v>
-          </cell>
-          <cell r="C73">
-            <v>40</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>0</v>
-          </cell>
-          <cell r="C74">
-            <v>41</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>0</v>
-          </cell>
-          <cell r="C75">
-            <v>42</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>0</v>
-          </cell>
-          <cell r="C76">
-            <v>43</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>0</v>
-          </cell>
-          <cell r="C77">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>0</v>
-          </cell>
-          <cell r="C78">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>0</v>
-          </cell>
-          <cell r="C79">
-            <v>46</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>0</v>
-          </cell>
-          <cell r="C80">
-            <v>47</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>0</v>
-          </cell>
-          <cell r="C81">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>0</v>
-          </cell>
-          <cell r="C82">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>0</v>
-          </cell>
-          <cell r="C83">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>0</v>
-          </cell>
-          <cell r="C84">
-            <v>51</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>0</v>
-          </cell>
-          <cell r="C85">
-            <v>52</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>0</v>
-          </cell>
-          <cell r="C86">
-            <v>53</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>0</v>
-          </cell>
-          <cell r="C87">
-            <v>54</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>0</v>
-          </cell>
-          <cell r="C88">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>0</v>
-          </cell>
-          <cell r="C89">
-            <v>56</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>0</v>
-          </cell>
-          <cell r="C90">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>0</v>
-          </cell>
-          <cell r="C91">
-            <v>58</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>0.01</v>
-          </cell>
-          <cell r="C92">
-            <v>59</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fflonk" connectionId="1" xr16:uid="{5E7E9770-EFAA-5D4D-A7E0-3D90016D08E2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
@@ -34409,8 +34045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE74116-9F44-A54F-A6BB-CC0FCFA65322}">
   <dimension ref="A1:NTP78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64747,6 +64383,22 @@
         <v>44</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>46</v>
+      </c>
+    </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <f>SUM(A43:A75)</f>

--- a/gen_data/fflonk.xlsx
+++ b/gen_data/fflonk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminoholeguy/Development/Zeroknowledgeworkshop2/Zeroknowledgeworkshop/circuit_test/gen_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0DD96-4D80-1040-B50A-E28189D5893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7254343-9FCC-E44A-BAE4-B55BC0180C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{A2540C3D-7F72-2547-8F9E-0187692AE771}"/>
   </bookViews>
